--- a/data/neut_assays/plate_reader_data/fPitt3postinf_NeutralizationAssay.xlsx
+++ b/data/neut_assays/plate_reader_data/fPitt3postinf_NeutralizationAssay.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="34120" yWindow="460" windowWidth="28800" windowHeight="16400" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="WT" sheetId="2" r:id="rId1"/>
@@ -17,6 +17,8 @@
     <sheet name="F193D" sheetId="3" r:id="rId3"/>
     <sheet name="K160T" sheetId="4" r:id="rId4"/>
     <sheet name="L157D" sheetId="5" r:id="rId5"/>
+    <sheet name="WT2" sheetId="6" r:id="rId6"/>
+    <sheet name="R220D" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -475,8 +477,186 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="72">
   <si>
     <t>Application: Tecan i-control</t>
   </si>
@@ -668,6 +848,30 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>9:38:04 AM</t>
+  </si>
+  <si>
+    <t>FHCRC\reguia</t>
+  </si>
+  <si>
+    <t>5/24/2019 9:39:01 AM</t>
+  </si>
+  <si>
+    <t>5/24/2019 9:39:57 AM</t>
+  </si>
+  <si>
+    <t>9:35:52 AM</t>
+  </si>
+  <si>
+    <t>5/24/2019 9:36:49 AM</t>
+  </si>
+  <si>
+    <t>Temperature: 24.1 °C</t>
+  </si>
+  <si>
+    <t>5/24/2019 9:37:45 AM</t>
   </si>
 </sst>
 </file>
@@ -3277,7 +3481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
@@ -3803,4 +4007,1210 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43609</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>107</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32">
+        <v>12327</v>
+      </c>
+      <c r="C32">
+        <v>12760</v>
+      </c>
+      <c r="D32">
+        <v>12959</v>
+      </c>
+      <c r="E32">
+        <v>13124</v>
+      </c>
+      <c r="F32">
+        <v>13753</v>
+      </c>
+      <c r="G32">
+        <v>13678</v>
+      </c>
+      <c r="H32">
+        <v>13414</v>
+      </c>
+      <c r="I32">
+        <v>13220</v>
+      </c>
+      <c r="J32">
+        <v>13209</v>
+      </c>
+      <c r="K32">
+        <v>12995</v>
+      </c>
+      <c r="L32">
+        <v>12681</v>
+      </c>
+      <c r="M32">
+        <v>12051</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>18369</v>
+      </c>
+      <c r="C33">
+        <v>18754</v>
+      </c>
+      <c r="D33">
+        <v>19148</v>
+      </c>
+      <c r="E33">
+        <v>18976</v>
+      </c>
+      <c r="F33">
+        <v>19302</v>
+      </c>
+      <c r="G33">
+        <v>19273</v>
+      </c>
+      <c r="H33">
+        <v>19058</v>
+      </c>
+      <c r="I33">
+        <v>19133</v>
+      </c>
+      <c r="J33">
+        <v>19066</v>
+      </c>
+      <c r="K33">
+        <v>18721</v>
+      </c>
+      <c r="L33">
+        <v>18657</v>
+      </c>
+      <c r="M33">
+        <v>18449</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <v>30983</v>
+      </c>
+      <c r="C34">
+        <v>33364</v>
+      </c>
+      <c r="D34">
+        <v>35331</v>
+      </c>
+      <c r="E34">
+        <v>37558</v>
+      </c>
+      <c r="F34">
+        <v>38574</v>
+      </c>
+      <c r="G34">
+        <v>38284</v>
+      </c>
+      <c r="H34">
+        <v>36053</v>
+      </c>
+      <c r="I34">
+        <v>36243</v>
+      </c>
+      <c r="J34">
+        <v>36523</v>
+      </c>
+      <c r="K34">
+        <v>37485</v>
+      </c>
+      <c r="L34">
+        <v>34632</v>
+      </c>
+      <c r="M34">
+        <v>34497</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>32556</v>
+      </c>
+      <c r="C35">
+        <v>32516</v>
+      </c>
+      <c r="D35">
+        <v>35038</v>
+      </c>
+      <c r="E35">
+        <v>34913</v>
+      </c>
+      <c r="F35">
+        <v>31444</v>
+      </c>
+      <c r="G35">
+        <v>29245</v>
+      </c>
+      <c r="H35">
+        <v>23503</v>
+      </c>
+      <c r="I35">
+        <v>19900</v>
+      </c>
+      <c r="J35">
+        <v>18850</v>
+      </c>
+      <c r="K35">
+        <v>20109</v>
+      </c>
+      <c r="L35">
+        <v>22352</v>
+      </c>
+      <c r="M35">
+        <v>28901</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>32535</v>
+      </c>
+      <c r="C36">
+        <v>34674</v>
+      </c>
+      <c r="D36">
+        <v>33007</v>
+      </c>
+      <c r="E36">
+        <v>34508</v>
+      </c>
+      <c r="F36">
+        <v>32526</v>
+      </c>
+      <c r="G36">
+        <v>29061</v>
+      </c>
+      <c r="H36">
+        <v>23703</v>
+      </c>
+      <c r="I36">
+        <v>19991</v>
+      </c>
+      <c r="J36">
+        <v>18777</v>
+      </c>
+      <c r="K36">
+        <v>19743</v>
+      </c>
+      <c r="L36">
+        <v>22617</v>
+      </c>
+      <c r="M36">
+        <v>28693</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>29808</v>
+      </c>
+      <c r="C37">
+        <v>32390</v>
+      </c>
+      <c r="D37">
+        <v>32201</v>
+      </c>
+      <c r="E37">
+        <v>30991</v>
+      </c>
+      <c r="F37">
+        <v>30605</v>
+      </c>
+      <c r="G37">
+        <v>26908</v>
+      </c>
+      <c r="H37">
+        <v>23552</v>
+      </c>
+      <c r="I37">
+        <v>20123</v>
+      </c>
+      <c r="J37">
+        <v>18665</v>
+      </c>
+      <c r="K37">
+        <v>19748</v>
+      </c>
+      <c r="L37">
+        <v>22626</v>
+      </c>
+      <c r="M37">
+        <v>28373</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>29534</v>
+      </c>
+      <c r="C38">
+        <v>32376</v>
+      </c>
+      <c r="D38">
+        <v>33415</v>
+      </c>
+      <c r="E38">
+        <v>32909</v>
+      </c>
+      <c r="F38">
+        <v>33462</v>
+      </c>
+      <c r="G38">
+        <v>34611</v>
+      </c>
+      <c r="H38">
+        <v>33097</v>
+      </c>
+      <c r="I38">
+        <v>36800</v>
+      </c>
+      <c r="J38">
+        <v>34956</v>
+      </c>
+      <c r="K38">
+        <v>33615</v>
+      </c>
+      <c r="L38">
+        <v>32814</v>
+      </c>
+      <c r="M38">
+        <v>31940</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39">
+        <v>11215</v>
+      </c>
+      <c r="C39">
+        <v>12188</v>
+      </c>
+      <c r="D39">
+        <v>11824</v>
+      </c>
+      <c r="E39">
+        <v>12283</v>
+      </c>
+      <c r="F39">
+        <v>12468</v>
+      </c>
+      <c r="G39">
+        <v>12499</v>
+      </c>
+      <c r="H39">
+        <v>12566</v>
+      </c>
+      <c r="I39">
+        <v>12364</v>
+      </c>
+      <c r="J39">
+        <v>12240</v>
+      </c>
+      <c r="K39">
+        <v>11947</v>
+      </c>
+      <c r="L39">
+        <v>11525</v>
+      </c>
+      <c r="M39">
+        <v>11224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43609</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>106</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32">
+        <v>11365</v>
+      </c>
+      <c r="C32">
+        <v>11575</v>
+      </c>
+      <c r="D32">
+        <v>12419</v>
+      </c>
+      <c r="E32">
+        <v>12620</v>
+      </c>
+      <c r="F32">
+        <v>12784</v>
+      </c>
+      <c r="G32">
+        <v>12827</v>
+      </c>
+      <c r="H32">
+        <v>12794</v>
+      </c>
+      <c r="I32">
+        <v>12185</v>
+      </c>
+      <c r="J32">
+        <v>12777</v>
+      </c>
+      <c r="K32">
+        <v>11856</v>
+      </c>
+      <c r="L32">
+        <v>11664</v>
+      </c>
+      <c r="M32">
+        <v>11273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>16342</v>
+      </c>
+      <c r="C33">
+        <v>16507</v>
+      </c>
+      <c r="D33">
+        <v>16806</v>
+      </c>
+      <c r="E33">
+        <v>17198</v>
+      </c>
+      <c r="F33">
+        <v>17249</v>
+      </c>
+      <c r="G33">
+        <v>17491</v>
+      </c>
+      <c r="H33">
+        <v>17128</v>
+      </c>
+      <c r="I33">
+        <v>17333</v>
+      </c>
+      <c r="J33">
+        <v>17006</v>
+      </c>
+      <c r="K33">
+        <v>16956</v>
+      </c>
+      <c r="L33">
+        <v>16246</v>
+      </c>
+      <c r="M33">
+        <v>16266</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <v>29891</v>
+      </c>
+      <c r="C34">
+        <v>31200</v>
+      </c>
+      <c r="D34">
+        <v>30236</v>
+      </c>
+      <c r="E34">
+        <v>28736</v>
+      </c>
+      <c r="F34">
+        <v>30446</v>
+      </c>
+      <c r="G34">
+        <v>33313</v>
+      </c>
+      <c r="H34">
+        <v>35451</v>
+      </c>
+      <c r="I34">
+        <v>31579</v>
+      </c>
+      <c r="J34">
+        <v>32933</v>
+      </c>
+      <c r="K34">
+        <v>32589</v>
+      </c>
+      <c r="L34">
+        <v>33573</v>
+      </c>
+      <c r="M34">
+        <v>30806</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>27413</v>
+      </c>
+      <c r="C35">
+        <v>27513</v>
+      </c>
+      <c r="D35">
+        <v>26654</v>
+      </c>
+      <c r="E35">
+        <v>23405</v>
+      </c>
+      <c r="F35">
+        <v>19786</v>
+      </c>
+      <c r="G35">
+        <v>17247</v>
+      </c>
+      <c r="H35">
+        <v>16929</v>
+      </c>
+      <c r="I35">
+        <v>17012</v>
+      </c>
+      <c r="J35">
+        <v>17037</v>
+      </c>
+      <c r="K35">
+        <v>17900</v>
+      </c>
+      <c r="L35">
+        <v>20319</v>
+      </c>
+      <c r="M35">
+        <v>25495</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>29514</v>
+      </c>
+      <c r="C36">
+        <v>29011</v>
+      </c>
+      <c r="D36">
+        <v>27239</v>
+      </c>
+      <c r="E36">
+        <v>23082</v>
+      </c>
+      <c r="F36">
+        <v>19157</v>
+      </c>
+      <c r="G36">
+        <v>17155</v>
+      </c>
+      <c r="H36">
+        <v>16597</v>
+      </c>
+      <c r="I36">
+        <v>16404</v>
+      </c>
+      <c r="J36">
+        <v>16774</v>
+      </c>
+      <c r="K36">
+        <v>17663</v>
+      </c>
+      <c r="L36">
+        <v>20162</v>
+      </c>
+      <c r="M36">
+        <v>25509</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>28661</v>
+      </c>
+      <c r="C37">
+        <v>29045</v>
+      </c>
+      <c r="D37">
+        <v>25959</v>
+      </c>
+      <c r="E37">
+        <v>23264</v>
+      </c>
+      <c r="F37">
+        <v>18431</v>
+      </c>
+      <c r="G37">
+        <v>16842</v>
+      </c>
+      <c r="H37">
+        <v>16474</v>
+      </c>
+      <c r="I37">
+        <v>16342</v>
+      </c>
+      <c r="J37">
+        <v>16407</v>
+      </c>
+      <c r="K37">
+        <v>17526</v>
+      </c>
+      <c r="L37">
+        <v>19933</v>
+      </c>
+      <c r="M37">
+        <v>25128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>28160</v>
+      </c>
+      <c r="C38">
+        <v>29027</v>
+      </c>
+      <c r="D38">
+        <v>28325</v>
+      </c>
+      <c r="E38">
+        <v>29504</v>
+      </c>
+      <c r="F38">
+        <v>30528</v>
+      </c>
+      <c r="G38">
+        <v>29276</v>
+      </c>
+      <c r="H38">
+        <v>31266</v>
+      </c>
+      <c r="I38">
+        <v>30390</v>
+      </c>
+      <c r="J38">
+        <v>30010</v>
+      </c>
+      <c r="K38">
+        <v>30887</v>
+      </c>
+      <c r="L38">
+        <v>28374</v>
+      </c>
+      <c r="M38">
+        <v>29486</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39">
+        <v>10798</v>
+      </c>
+      <c r="C39">
+        <v>10819</v>
+      </c>
+      <c r="D39">
+        <v>11096</v>
+      </c>
+      <c r="E39">
+        <v>11337</v>
+      </c>
+      <c r="F39">
+        <v>11569</v>
+      </c>
+      <c r="G39">
+        <v>11746</v>
+      </c>
+      <c r="H39">
+        <v>11609</v>
+      </c>
+      <c r="I39">
+        <v>11497</v>
+      </c>
+      <c r="J39">
+        <v>11382</v>
+      </c>
+      <c r="K39">
+        <v>11200</v>
+      </c>
+      <c r="L39">
+        <v>10498</v>
+      </c>
+      <c r="M39">
+        <v>10255</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/neut_assays/plate_reader_data/fPitt3postinf_NeutralizationAssay.xlsx
+++ b/data/neut_assays/plate_reader_data/fPitt3postinf_NeutralizationAssay.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" activeTab="6"/>
+    <workbookView xWindow="34120" yWindow="460" windowWidth="28800" windowHeight="16400" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="WT" sheetId="2" r:id="rId1"/>
@@ -17,8 +17,6 @@
     <sheet name="F193D" sheetId="3" r:id="rId3"/>
     <sheet name="K160T" sheetId="4" r:id="rId4"/>
     <sheet name="L157D" sheetId="5" r:id="rId5"/>
-    <sheet name="WT2" sheetId="6" r:id="rId6"/>
-    <sheet name="R220D" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -477,186 +475,8 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Eguia, Rachel T</author>
-  </authors>
-  <commentList>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
-Tecan.At.Common.DocumentManagement, 3.3.10.0
-Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
-Tecan.At.Common.MCS, 3.3.10.0
-Tecan.At.Common.Results, 3.3.10.0
-Tecan.At.Common.UI, 3.3.10.0
-Tecan.At.Communication.Common, 3.3.12.0
-Tecan.At.Communication.Port.IP, 3.3.12.0
-Tecan.At.Communication.Port.RS232, 3.3.12.0
-Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
-Tecan.At.Communication.Port.USB, 3.3.12.0
-Tecan.At.Communication.Server, 3.3.12.0
-Tecan.At.Communication.SIM.AMR, 3.1.17.0
-Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
-Tecan.At.Communication.SIM.Connect, 3.3.12.0
-Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
-Tecan.At.Communication.SIM.Safire3, 3.1.17.0
-Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
-Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
-Tecan.At.Instrument.Common, 3.3.12.0
-Tecan.At.Instrument.Common.Reader, 3.1.17.0
-Tecan.At.Instrument.Common.Stacker, 3.3.12.0
-Tecan.At.Instrument.Reader.AMR, 3.1.17.0
-Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
-Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
-Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
-Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
-Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
-Tecan.At.Instrument.Server, 3.3.12.0
-Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
-Tecan.At.Instrument.Stacker.Server, 3.3.12.0
-Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
-Tecan.At.Measurement.Common, 3.1.17.0
-Tecan.At.Measurement.Server, 3.1.17.0
-Tecan.At.XFluor, 1.9.17.0
-Tecan.At.XFluor.Connect.Reader, 1.9.17.0
-Tecan.At.XFluor.Core, 1.9.17.0
-Tecan.At.XFluor.Device, 1.9.17.0
-Tecan.At.XFluor.Device.AMR, 1.9.17.0
-Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
-Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
-Tecan.At.XFluor.Device.Reader, 1.9.17.0
-Tecan.At.XFluor.Device.Safire3, 1.9.17.0
-Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
-Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
-Tecan.At.XFluor.ExcelOutput, 1.9.17.0
-Tecan.At.XFluor.NanoQuant, 1.9.17.0
-Tecan.At.XFluor.ReaderEditor, 1.9.17.0
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
-MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
-ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
-LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
-TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Eguia, Rachel T</author>
-  </authors>
-  <commentList>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
-Tecan.At.Common.DocumentManagement, 3.3.10.0
-Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
-Tecan.At.Common.MCS, 3.3.10.0
-Tecan.At.Common.Results, 3.3.10.0
-Tecan.At.Common.UI, 3.3.10.0
-Tecan.At.Communication.Common, 3.3.12.0
-Tecan.At.Communication.Port.IP, 3.3.12.0
-Tecan.At.Communication.Port.RS232, 3.3.12.0
-Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
-Tecan.At.Communication.Port.USB, 3.3.12.0
-Tecan.At.Communication.Server, 3.3.12.0
-Tecan.At.Communication.SIM.AMR, 3.1.17.0
-Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
-Tecan.At.Communication.SIM.Connect, 3.3.12.0
-Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
-Tecan.At.Communication.SIM.Safire3, 3.1.17.0
-Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
-Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
-Tecan.At.Instrument.Common, 3.3.12.0
-Tecan.At.Instrument.Common.Reader, 3.1.17.0
-Tecan.At.Instrument.Common.Stacker, 3.3.12.0
-Tecan.At.Instrument.Reader.AMR, 3.1.17.0
-Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
-Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
-Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
-Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
-Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
-Tecan.At.Instrument.Server, 3.3.12.0
-Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
-Tecan.At.Instrument.Stacker.Server, 3.3.12.0
-Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
-Tecan.At.Measurement.Common, 3.1.17.0
-Tecan.At.Measurement.Server, 3.1.17.0
-Tecan.At.XFluor, 1.9.17.0
-Tecan.At.XFluor.Connect.Reader, 1.9.17.0
-Tecan.At.XFluor.Core, 1.9.17.0
-Tecan.At.XFluor.Device, 1.9.17.0
-Tecan.At.XFluor.Device.AMR, 1.9.17.0
-Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
-Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
-Tecan.At.XFluor.Device.Reader, 1.9.17.0
-Tecan.At.XFluor.Device.Safire3, 1.9.17.0
-Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
-Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
-Tecan.At.XFluor.ExcelOutput, 1.9.17.0
-Tecan.At.XFluor.NanoQuant, 1.9.17.0
-Tecan.At.XFluor.ReaderEditor, 1.9.17.0
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
-MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
-ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
-LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
-TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="64">
   <si>
     <t>Application: Tecan i-control</t>
   </si>
@@ -848,30 +668,6 @@
   </si>
   <si>
     <t>H</t>
-  </si>
-  <si>
-    <t>9:38:04 AM</t>
-  </si>
-  <si>
-    <t>FHCRC\reguia</t>
-  </si>
-  <si>
-    <t>5/24/2019 9:39:01 AM</t>
-  </si>
-  <si>
-    <t>5/24/2019 9:39:57 AM</t>
-  </si>
-  <si>
-    <t>9:35:52 AM</t>
-  </si>
-  <si>
-    <t>5/24/2019 9:36:49 AM</t>
-  </si>
-  <si>
-    <t>Temperature: 24.1 °C</t>
-  </si>
-  <si>
-    <t>5/24/2019 9:37:45 AM</t>
   </si>
 </sst>
 </file>
@@ -3481,7 +3277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
@@ -4007,1210 +3803,4 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>43609</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>485</v>
-      </c>
-      <c r="F18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>515</v>
-      </c>
-      <c r="F19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>12</v>
-      </c>
-      <c r="F21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22">
-        <v>107</v>
-      </c>
-      <c r="F22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23">
-        <v>25</v>
-      </c>
-      <c r="F23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24">
-        <v>400</v>
-      </c>
-      <c r="F24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25">
-        <v>20</v>
-      </c>
-      <c r="F25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="3">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3">
-        <v>2</v>
-      </c>
-      <c r="D31" s="3">
-        <v>3</v>
-      </c>
-      <c r="E31" s="3">
-        <v>4</v>
-      </c>
-      <c r="F31" s="3">
-        <v>5</v>
-      </c>
-      <c r="G31" s="3">
-        <v>6</v>
-      </c>
-      <c r="H31" s="3">
-        <v>7</v>
-      </c>
-      <c r="I31" s="3">
-        <v>8</v>
-      </c>
-      <c r="J31" s="3">
-        <v>9</v>
-      </c>
-      <c r="K31" s="3">
-        <v>10</v>
-      </c>
-      <c r="L31" s="3">
-        <v>11</v>
-      </c>
-      <c r="M31" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32">
-        <v>12327</v>
-      </c>
-      <c r="C32">
-        <v>12760</v>
-      </c>
-      <c r="D32">
-        <v>12959</v>
-      </c>
-      <c r="E32">
-        <v>13124</v>
-      </c>
-      <c r="F32">
-        <v>13753</v>
-      </c>
-      <c r="G32">
-        <v>13678</v>
-      </c>
-      <c r="H32">
-        <v>13414</v>
-      </c>
-      <c r="I32">
-        <v>13220</v>
-      </c>
-      <c r="J32">
-        <v>13209</v>
-      </c>
-      <c r="K32">
-        <v>12995</v>
-      </c>
-      <c r="L32">
-        <v>12681</v>
-      </c>
-      <c r="M32">
-        <v>12051</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33">
-        <v>18369</v>
-      </c>
-      <c r="C33">
-        <v>18754</v>
-      </c>
-      <c r="D33">
-        <v>19148</v>
-      </c>
-      <c r="E33">
-        <v>18976</v>
-      </c>
-      <c r="F33">
-        <v>19302</v>
-      </c>
-      <c r="G33">
-        <v>19273</v>
-      </c>
-      <c r="H33">
-        <v>19058</v>
-      </c>
-      <c r="I33">
-        <v>19133</v>
-      </c>
-      <c r="J33">
-        <v>19066</v>
-      </c>
-      <c r="K33">
-        <v>18721</v>
-      </c>
-      <c r="L33">
-        <v>18657</v>
-      </c>
-      <c r="M33">
-        <v>18449</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34">
-        <v>30983</v>
-      </c>
-      <c r="C34">
-        <v>33364</v>
-      </c>
-      <c r="D34">
-        <v>35331</v>
-      </c>
-      <c r="E34">
-        <v>37558</v>
-      </c>
-      <c r="F34">
-        <v>38574</v>
-      </c>
-      <c r="G34">
-        <v>38284</v>
-      </c>
-      <c r="H34">
-        <v>36053</v>
-      </c>
-      <c r="I34">
-        <v>36243</v>
-      </c>
-      <c r="J34">
-        <v>36523</v>
-      </c>
-      <c r="K34">
-        <v>37485</v>
-      </c>
-      <c r="L34">
-        <v>34632</v>
-      </c>
-      <c r="M34">
-        <v>34497</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35">
-        <v>32556</v>
-      </c>
-      <c r="C35">
-        <v>32516</v>
-      </c>
-      <c r="D35">
-        <v>35038</v>
-      </c>
-      <c r="E35">
-        <v>34913</v>
-      </c>
-      <c r="F35">
-        <v>31444</v>
-      </c>
-      <c r="G35">
-        <v>29245</v>
-      </c>
-      <c r="H35">
-        <v>23503</v>
-      </c>
-      <c r="I35">
-        <v>19900</v>
-      </c>
-      <c r="J35">
-        <v>18850</v>
-      </c>
-      <c r="K35">
-        <v>20109</v>
-      </c>
-      <c r="L35">
-        <v>22352</v>
-      </c>
-      <c r="M35">
-        <v>28901</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36">
-        <v>32535</v>
-      </c>
-      <c r="C36">
-        <v>34674</v>
-      </c>
-      <c r="D36">
-        <v>33007</v>
-      </c>
-      <c r="E36">
-        <v>34508</v>
-      </c>
-      <c r="F36">
-        <v>32526</v>
-      </c>
-      <c r="G36">
-        <v>29061</v>
-      </c>
-      <c r="H36">
-        <v>23703</v>
-      </c>
-      <c r="I36">
-        <v>19991</v>
-      </c>
-      <c r="J36">
-        <v>18777</v>
-      </c>
-      <c r="K36">
-        <v>19743</v>
-      </c>
-      <c r="L36">
-        <v>22617</v>
-      </c>
-      <c r="M36">
-        <v>28693</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37">
-        <v>29808</v>
-      </c>
-      <c r="C37">
-        <v>32390</v>
-      </c>
-      <c r="D37">
-        <v>32201</v>
-      </c>
-      <c r="E37">
-        <v>30991</v>
-      </c>
-      <c r="F37">
-        <v>30605</v>
-      </c>
-      <c r="G37">
-        <v>26908</v>
-      </c>
-      <c r="H37">
-        <v>23552</v>
-      </c>
-      <c r="I37">
-        <v>20123</v>
-      </c>
-      <c r="J37">
-        <v>18665</v>
-      </c>
-      <c r="K37">
-        <v>19748</v>
-      </c>
-      <c r="L37">
-        <v>22626</v>
-      </c>
-      <c r="M37">
-        <v>28373</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38">
-        <v>29534</v>
-      </c>
-      <c r="C38">
-        <v>32376</v>
-      </c>
-      <c r="D38">
-        <v>33415</v>
-      </c>
-      <c r="E38">
-        <v>32909</v>
-      </c>
-      <c r="F38">
-        <v>33462</v>
-      </c>
-      <c r="G38">
-        <v>34611</v>
-      </c>
-      <c r="H38">
-        <v>33097</v>
-      </c>
-      <c r="I38">
-        <v>36800</v>
-      </c>
-      <c r="J38">
-        <v>34956</v>
-      </c>
-      <c r="K38">
-        <v>33615</v>
-      </c>
-      <c r="L38">
-        <v>32814</v>
-      </c>
-      <c r="M38">
-        <v>31940</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39">
-        <v>11215</v>
-      </c>
-      <c r="C39">
-        <v>12188</v>
-      </c>
-      <c r="D39">
-        <v>11824</v>
-      </c>
-      <c r="E39">
-        <v>12283</v>
-      </c>
-      <c r="F39">
-        <v>12468</v>
-      </c>
-      <c r="G39">
-        <v>12499</v>
-      </c>
-      <c r="H39">
-        <v>12566</v>
-      </c>
-      <c r="I39">
-        <v>12364</v>
-      </c>
-      <c r="J39">
-        <v>12240</v>
-      </c>
-      <c r="K39">
-        <v>11947</v>
-      </c>
-      <c r="L39">
-        <v>11525</v>
-      </c>
-      <c r="M39">
-        <v>11224</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M43"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>43609</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>485</v>
-      </c>
-      <c r="F18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>515</v>
-      </c>
-      <c r="F19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>12</v>
-      </c>
-      <c r="F21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22">
-        <v>106</v>
-      </c>
-      <c r="F22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23">
-        <v>25</v>
-      </c>
-      <c r="F23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24">
-        <v>400</v>
-      </c>
-      <c r="F24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25">
-        <v>20</v>
-      </c>
-      <c r="F25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="3">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3">
-        <v>2</v>
-      </c>
-      <c r="D31" s="3">
-        <v>3</v>
-      </c>
-      <c r="E31" s="3">
-        <v>4</v>
-      </c>
-      <c r="F31" s="3">
-        <v>5</v>
-      </c>
-      <c r="G31" s="3">
-        <v>6</v>
-      </c>
-      <c r="H31" s="3">
-        <v>7</v>
-      </c>
-      <c r="I31" s="3">
-        <v>8</v>
-      </c>
-      <c r="J31" s="3">
-        <v>9</v>
-      </c>
-      <c r="K31" s="3">
-        <v>10</v>
-      </c>
-      <c r="L31" s="3">
-        <v>11</v>
-      </c>
-      <c r="M31" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32">
-        <v>11365</v>
-      </c>
-      <c r="C32">
-        <v>11575</v>
-      </c>
-      <c r="D32">
-        <v>12419</v>
-      </c>
-      <c r="E32">
-        <v>12620</v>
-      </c>
-      <c r="F32">
-        <v>12784</v>
-      </c>
-      <c r="G32">
-        <v>12827</v>
-      </c>
-      <c r="H32">
-        <v>12794</v>
-      </c>
-      <c r="I32">
-        <v>12185</v>
-      </c>
-      <c r="J32">
-        <v>12777</v>
-      </c>
-      <c r="K32">
-        <v>11856</v>
-      </c>
-      <c r="L32">
-        <v>11664</v>
-      </c>
-      <c r="M32">
-        <v>11273</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33">
-        <v>16342</v>
-      </c>
-      <c r="C33">
-        <v>16507</v>
-      </c>
-      <c r="D33">
-        <v>16806</v>
-      </c>
-      <c r="E33">
-        <v>17198</v>
-      </c>
-      <c r="F33">
-        <v>17249</v>
-      </c>
-      <c r="G33">
-        <v>17491</v>
-      </c>
-      <c r="H33">
-        <v>17128</v>
-      </c>
-      <c r="I33">
-        <v>17333</v>
-      </c>
-      <c r="J33">
-        <v>17006</v>
-      </c>
-      <c r="K33">
-        <v>16956</v>
-      </c>
-      <c r="L33">
-        <v>16246</v>
-      </c>
-      <c r="M33">
-        <v>16266</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34">
-        <v>29891</v>
-      </c>
-      <c r="C34">
-        <v>31200</v>
-      </c>
-      <c r="D34">
-        <v>30236</v>
-      </c>
-      <c r="E34">
-        <v>28736</v>
-      </c>
-      <c r="F34">
-        <v>30446</v>
-      </c>
-      <c r="G34">
-        <v>33313</v>
-      </c>
-      <c r="H34">
-        <v>35451</v>
-      </c>
-      <c r="I34">
-        <v>31579</v>
-      </c>
-      <c r="J34">
-        <v>32933</v>
-      </c>
-      <c r="K34">
-        <v>32589</v>
-      </c>
-      <c r="L34">
-        <v>33573</v>
-      </c>
-      <c r="M34">
-        <v>30806</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35">
-        <v>27413</v>
-      </c>
-      <c r="C35">
-        <v>27513</v>
-      </c>
-      <c r="D35">
-        <v>26654</v>
-      </c>
-      <c r="E35">
-        <v>23405</v>
-      </c>
-      <c r="F35">
-        <v>19786</v>
-      </c>
-      <c r="G35">
-        <v>17247</v>
-      </c>
-      <c r="H35">
-        <v>16929</v>
-      </c>
-      <c r="I35">
-        <v>17012</v>
-      </c>
-      <c r="J35">
-        <v>17037</v>
-      </c>
-      <c r="K35">
-        <v>17900</v>
-      </c>
-      <c r="L35">
-        <v>20319</v>
-      </c>
-      <c r="M35">
-        <v>25495</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36">
-        <v>29514</v>
-      </c>
-      <c r="C36">
-        <v>29011</v>
-      </c>
-      <c r="D36">
-        <v>27239</v>
-      </c>
-      <c r="E36">
-        <v>23082</v>
-      </c>
-      <c r="F36">
-        <v>19157</v>
-      </c>
-      <c r="G36">
-        <v>17155</v>
-      </c>
-      <c r="H36">
-        <v>16597</v>
-      </c>
-      <c r="I36">
-        <v>16404</v>
-      </c>
-      <c r="J36">
-        <v>16774</v>
-      </c>
-      <c r="K36">
-        <v>17663</v>
-      </c>
-      <c r="L36">
-        <v>20162</v>
-      </c>
-      <c r="M36">
-        <v>25509</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37">
-        <v>28661</v>
-      </c>
-      <c r="C37">
-        <v>29045</v>
-      </c>
-      <c r="D37">
-        <v>25959</v>
-      </c>
-      <c r="E37">
-        <v>23264</v>
-      </c>
-      <c r="F37">
-        <v>18431</v>
-      </c>
-      <c r="G37">
-        <v>16842</v>
-      </c>
-      <c r="H37">
-        <v>16474</v>
-      </c>
-      <c r="I37">
-        <v>16342</v>
-      </c>
-      <c r="J37">
-        <v>16407</v>
-      </c>
-      <c r="K37">
-        <v>17526</v>
-      </c>
-      <c r="L37">
-        <v>19933</v>
-      </c>
-      <c r="M37">
-        <v>25128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38">
-        <v>28160</v>
-      </c>
-      <c r="C38">
-        <v>29027</v>
-      </c>
-      <c r="D38">
-        <v>28325</v>
-      </c>
-      <c r="E38">
-        <v>29504</v>
-      </c>
-      <c r="F38">
-        <v>30528</v>
-      </c>
-      <c r="G38">
-        <v>29276</v>
-      </c>
-      <c r="H38">
-        <v>31266</v>
-      </c>
-      <c r="I38">
-        <v>30390</v>
-      </c>
-      <c r="J38">
-        <v>30010</v>
-      </c>
-      <c r="K38">
-        <v>30887</v>
-      </c>
-      <c r="L38">
-        <v>28374</v>
-      </c>
-      <c r="M38">
-        <v>29486</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39">
-        <v>10798</v>
-      </c>
-      <c r="C39">
-        <v>10819</v>
-      </c>
-      <c r="D39">
-        <v>11096</v>
-      </c>
-      <c r="E39">
-        <v>11337</v>
-      </c>
-      <c r="F39">
-        <v>11569</v>
-      </c>
-      <c r="G39">
-        <v>11746</v>
-      </c>
-      <c r="H39">
-        <v>11609</v>
-      </c>
-      <c r="I39">
-        <v>11497</v>
-      </c>
-      <c r="J39">
-        <v>11382</v>
-      </c>
-      <c r="K39">
-        <v>11200</v>
-      </c>
-      <c r="L39">
-        <v>10498</v>
-      </c>
-      <c r="M39">
-        <v>10255</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/data/neut_assays/plate_reader_data/fPitt3postinf_NeutralizationAssay.xlsx
+++ b/data/neut_assays/plate_reader_data/fPitt3postinf_NeutralizationAssay.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juhyemlee/Google Drive/Bloom_Lab/Perth2009_MAP/NeutralizationAssays/mutvalidation/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="34120" yWindow="460" windowWidth="28800" windowHeight="16400" activeTab="4"/>
+    <workbookView xWindow="7960" yWindow="2260" windowWidth="28800" windowHeight="16400" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="WT" sheetId="2" r:id="rId1"/>
@@ -17,14 +12,16 @@
     <sheet name="F193D" sheetId="3" r:id="rId3"/>
     <sheet name="K160T" sheetId="4" r:id="rId4"/>
     <sheet name="L157D" sheetId="5" r:id="rId5"/>
+    <sheet name="WT2" sheetId="6" r:id="rId6"/>
+    <sheet name="R220D" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -475,8 +472,186 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="73">
   <si>
     <t>Application: Tecan i-control</t>
   </si>
@@ -668,6 +843,33 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>FHCRC\reguia</t>
+  </si>
+  <si>
+    <t>9:51:50 AM</t>
+  </si>
+  <si>
+    <t>5/28/2019 9:52:53 AM</t>
+  </si>
+  <si>
+    <t>Temperature: 24.8 °C</t>
+  </si>
+  <si>
+    <t>5/28/2019 9:53:49 AM</t>
+  </si>
+  <si>
+    <t>9:49:33 AM</t>
+  </si>
+  <si>
+    <t>5/28/2019 9:50:36 AM</t>
+  </si>
+  <si>
+    <t>Temperature: 24.7 °C</t>
+  </si>
+  <si>
+    <t>5/28/2019 9:51:32 AM</t>
   </si>
 </sst>
 </file>
@@ -1153,9 +1355,9 @@
       <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1163,7 +1365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1171,7 +1373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1179,7 +1381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1187,7 +1389,7 @@
         <v>43582</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1195,7 +1397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1203,7 +1405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1211,7 +1413,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1219,17 +1421,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1237,12 +1439,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1253,7 +1455,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1264,7 +1466,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1275,7 +1477,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1286,7 +1488,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1297,7 +1499,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1308,7 +1510,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1319,7 +1521,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1330,7 +1532,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1341,7 +1543,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1352,7 +1554,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1360,12 +1562,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="B30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -1406,12 +1608,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
@@ -1452,7 +1654,7 @@
         <v>9355</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
@@ -1493,7 +1695,7 @@
         <v>32258</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
@@ -1534,7 +1736,7 @@
         <v>12313</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
@@ -1575,7 +1777,7 @@
         <v>12495</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
@@ -1616,7 +1818,7 @@
         <v>12599</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
@@ -1657,12 +1859,12 @@
         <v>27133</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1674,6 +1876,11 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1685,9 +1892,9 @@
       <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1695,7 +1902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1703,7 +1910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1711,7 +1918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1719,7 +1926,7 @@
         <v>43582</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1727,7 +1934,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1735,7 +1942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1743,7 +1950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1751,17 +1958,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1769,12 +1976,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1785,7 +1992,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1796,7 +2003,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1807,7 +2014,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1818,7 +2025,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1829,7 +2036,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1840,7 +2047,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1851,7 +2058,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1862,7 +2069,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1873,7 +2080,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1884,7 +2091,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1892,12 +2099,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="B30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -1938,12 +2145,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
@@ -1984,7 +2191,7 @@
         <v>8975</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
@@ -2025,7 +2232,7 @@
         <v>33816</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
@@ -2066,7 +2273,7 @@
         <v>14922</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
@@ -2107,7 +2314,7 @@
         <v>14872</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
@@ -2148,7 +2355,7 @@
         <v>15089</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
@@ -2189,12 +2396,12 @@
         <v>32432</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -2206,6 +2413,11 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2217,9 +2429,9 @@
       <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2227,7 +2439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2235,7 +2447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2243,7 +2455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2251,7 +2463,7 @@
         <v>43582</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2259,7 +2471,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2267,7 +2479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2275,7 +2487,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2283,17 +2495,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2301,12 +2513,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2317,7 +2529,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2328,7 +2540,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2339,7 +2551,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2350,7 +2562,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2361,7 +2573,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2372,7 +2584,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2383,7 +2595,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2394,7 +2606,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2405,7 +2617,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2416,7 +2628,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -2424,12 +2636,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="B30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -2470,12 +2682,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
@@ -2516,7 +2728,7 @@
         <v>6440</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
@@ -2557,7 +2769,7 @@
         <v>29772</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
@@ -2598,7 +2810,7 @@
         <v>9954</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
@@ -2639,7 +2851,7 @@
         <v>10180</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
@@ -2680,7 +2892,7 @@
         <v>10259</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
@@ -2721,12 +2933,12 @@
         <v>28294</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -2738,6 +2950,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2749,9 +2966,9 @@
       <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2759,7 +2976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2767,7 +2984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2775,7 +2992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2783,7 +3000,7 @@
         <v>43582</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2791,7 +3008,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2799,7 +3016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2807,7 +3024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2815,17 +3032,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2833,12 +3050,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2849,7 +3066,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2860,7 +3077,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2871,7 +3088,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2882,7 +3099,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2893,7 +3110,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2904,7 +3121,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2915,7 +3132,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2926,7 +3143,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2937,7 +3154,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2948,7 +3165,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -2956,12 +3173,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="B30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -3002,12 +3219,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
@@ -3048,7 +3265,7 @@
         <v>9043</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
@@ -3089,7 +3306,7 @@
         <v>31736</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
@@ -3130,7 +3347,7 @@
         <v>13817</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
@@ -3171,7 +3388,7 @@
         <v>14027</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
@@ -3212,7 +3429,7 @@
         <v>13942</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
@@ -3253,12 +3470,12 @@
         <v>29436</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -3270,6 +3487,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3277,13 +3499,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3291,7 +3513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3299,7 +3521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3307,7 +3529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3315,7 +3537,7 @@
         <v>43582</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3323,7 +3545,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3331,7 +3553,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3339,7 +3561,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3347,17 +3569,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -3365,12 +3587,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -3381,7 +3603,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -3392,7 +3614,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -3403,7 +3625,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -3414,7 +3636,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -3425,7 +3647,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -3436,7 +3658,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -3447,7 +3669,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -3458,7 +3680,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -3469,7 +3691,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -3480,7 +3702,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3488,12 +3710,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="B30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -3534,12 +3756,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
@@ -3580,7 +3802,7 @@
         <v>9521</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
@@ -3621,7 +3843,7 @@
         <v>33905</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
@@ -3662,7 +3884,7 @@
         <v>15559</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
@@ -3703,7 +3925,7 @@
         <v>15793</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
@@ -3744,7 +3966,7 @@
         <v>15918</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
@@ -3785,12 +4007,12 @@
         <v>30281</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -3802,5 +4024,1226 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>94</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32">
+        <v>4814</v>
+      </c>
+      <c r="C32">
+        <v>4863</v>
+      </c>
+      <c r="D32">
+        <v>5040</v>
+      </c>
+      <c r="E32">
+        <v>5145</v>
+      </c>
+      <c r="F32">
+        <v>5255</v>
+      </c>
+      <c r="G32">
+        <v>5279</v>
+      </c>
+      <c r="H32">
+        <v>5277</v>
+      </c>
+      <c r="I32">
+        <v>5231</v>
+      </c>
+      <c r="J32">
+        <v>5169</v>
+      </c>
+      <c r="K32">
+        <v>5061</v>
+      </c>
+      <c r="L32">
+        <v>4886</v>
+      </c>
+      <c r="M32">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>8473</v>
+      </c>
+      <c r="C33">
+        <v>8476</v>
+      </c>
+      <c r="D33">
+        <v>8585</v>
+      </c>
+      <c r="E33">
+        <v>8670</v>
+      </c>
+      <c r="F33">
+        <v>8648</v>
+      </c>
+      <c r="G33">
+        <v>8773</v>
+      </c>
+      <c r="H33">
+        <v>8751</v>
+      </c>
+      <c r="I33">
+        <v>8759</v>
+      </c>
+      <c r="J33">
+        <v>8707</v>
+      </c>
+      <c r="K33">
+        <v>8612</v>
+      </c>
+      <c r="L33">
+        <v>8574</v>
+      </c>
+      <c r="M33">
+        <v>8564</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <v>27329</v>
+      </c>
+      <c r="C34">
+        <v>30489</v>
+      </c>
+      <c r="D34">
+        <v>31035</v>
+      </c>
+      <c r="E34">
+        <v>32498</v>
+      </c>
+      <c r="F34">
+        <v>34995</v>
+      </c>
+      <c r="G34">
+        <v>35175</v>
+      </c>
+      <c r="H34">
+        <v>37157</v>
+      </c>
+      <c r="I34">
+        <v>36528</v>
+      </c>
+      <c r="J34">
+        <v>34599</v>
+      </c>
+      <c r="K34">
+        <v>34350</v>
+      </c>
+      <c r="L34">
+        <v>33007</v>
+      </c>
+      <c r="M34">
+        <v>30696</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>25705</v>
+      </c>
+      <c r="C35">
+        <v>29624</v>
+      </c>
+      <c r="D35">
+        <v>30314</v>
+      </c>
+      <c r="E35">
+        <v>32679</v>
+      </c>
+      <c r="F35">
+        <v>33618</v>
+      </c>
+      <c r="G35">
+        <v>33831</v>
+      </c>
+      <c r="H35">
+        <v>32492</v>
+      </c>
+      <c r="I35">
+        <v>20322</v>
+      </c>
+      <c r="J35">
+        <v>8658</v>
+      </c>
+      <c r="K35">
+        <v>8683</v>
+      </c>
+      <c r="L35">
+        <v>9506</v>
+      </c>
+      <c r="M35">
+        <v>11935</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>24901</v>
+      </c>
+      <c r="C36">
+        <v>29578</v>
+      </c>
+      <c r="D36">
+        <v>30218</v>
+      </c>
+      <c r="E36">
+        <v>32241</v>
+      </c>
+      <c r="F36">
+        <v>31707</v>
+      </c>
+      <c r="G36">
+        <v>33170</v>
+      </c>
+      <c r="H36">
+        <v>32682</v>
+      </c>
+      <c r="I36">
+        <v>21500</v>
+      </c>
+      <c r="J36">
+        <v>8737</v>
+      </c>
+      <c r="K36">
+        <v>8643</v>
+      </c>
+      <c r="L36">
+        <v>9486</v>
+      </c>
+      <c r="M36">
+        <v>11758</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>26230</v>
+      </c>
+      <c r="C37">
+        <v>28640</v>
+      </c>
+      <c r="D37">
+        <v>30212</v>
+      </c>
+      <c r="E37">
+        <v>32422</v>
+      </c>
+      <c r="F37">
+        <v>31185</v>
+      </c>
+      <c r="G37">
+        <v>32600</v>
+      </c>
+      <c r="H37">
+        <v>31671</v>
+      </c>
+      <c r="I37">
+        <v>18561</v>
+      </c>
+      <c r="J37">
+        <v>8547</v>
+      </c>
+      <c r="K37">
+        <v>8481</v>
+      </c>
+      <c r="L37">
+        <v>9484</v>
+      </c>
+      <c r="M37">
+        <v>11914</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>25115</v>
+      </c>
+      <c r="C38">
+        <v>27997</v>
+      </c>
+      <c r="D38">
+        <v>28879</v>
+      </c>
+      <c r="E38">
+        <v>30897</v>
+      </c>
+      <c r="F38">
+        <v>31215</v>
+      </c>
+      <c r="G38">
+        <v>34252</v>
+      </c>
+      <c r="H38">
+        <v>32515</v>
+      </c>
+      <c r="I38">
+        <v>32737</v>
+      </c>
+      <c r="J38">
+        <v>31528</v>
+      </c>
+      <c r="K38">
+        <v>32307</v>
+      </c>
+      <c r="L38">
+        <v>30948</v>
+      </c>
+      <c r="M38">
+        <v>26922</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39">
+        <v>4375</v>
+      </c>
+      <c r="C39">
+        <v>4387</v>
+      </c>
+      <c r="D39">
+        <v>4540</v>
+      </c>
+      <c r="E39">
+        <v>4681</v>
+      </c>
+      <c r="F39">
+        <v>4863</v>
+      </c>
+      <c r="G39">
+        <v>4847</v>
+      </c>
+      <c r="H39">
+        <v>4866</v>
+      </c>
+      <c r="I39">
+        <v>4921</v>
+      </c>
+      <c r="J39">
+        <v>4781</v>
+      </c>
+      <c r="K39">
+        <v>4651</v>
+      </c>
+      <c r="L39">
+        <v>4519</v>
+      </c>
+      <c r="M39">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>97</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32">
+        <v>5678</v>
+      </c>
+      <c r="C32">
+        <v>6038</v>
+      </c>
+      <c r="D32">
+        <v>6075</v>
+      </c>
+      <c r="E32">
+        <v>6283</v>
+      </c>
+      <c r="F32">
+        <v>6660</v>
+      </c>
+      <c r="G32">
+        <v>6668</v>
+      </c>
+      <c r="H32">
+        <v>6486</v>
+      </c>
+      <c r="I32">
+        <v>6467</v>
+      </c>
+      <c r="J32">
+        <v>6410</v>
+      </c>
+      <c r="K32">
+        <v>6346</v>
+      </c>
+      <c r="L32">
+        <v>6172</v>
+      </c>
+      <c r="M32">
+        <v>5890</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>8242</v>
+      </c>
+      <c r="C33">
+        <v>8460</v>
+      </c>
+      <c r="D33">
+        <v>8656</v>
+      </c>
+      <c r="E33">
+        <v>8720</v>
+      </c>
+      <c r="F33">
+        <v>8867</v>
+      </c>
+      <c r="G33">
+        <v>9025</v>
+      </c>
+      <c r="H33">
+        <v>8826</v>
+      </c>
+      <c r="I33">
+        <v>8796</v>
+      </c>
+      <c r="J33">
+        <v>8869</v>
+      </c>
+      <c r="K33">
+        <v>8787</v>
+      </c>
+      <c r="L33">
+        <v>8596</v>
+      </c>
+      <c r="M33">
+        <v>8437</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <v>27413</v>
+      </c>
+      <c r="C34">
+        <v>31614</v>
+      </c>
+      <c r="D34">
+        <v>32566</v>
+      </c>
+      <c r="E34">
+        <v>33871</v>
+      </c>
+      <c r="F34">
+        <v>34616</v>
+      </c>
+      <c r="G34">
+        <v>35927</v>
+      </c>
+      <c r="H34">
+        <v>36263</v>
+      </c>
+      <c r="I34">
+        <v>36534</v>
+      </c>
+      <c r="J34">
+        <v>34374</v>
+      </c>
+      <c r="K34">
+        <v>34052</v>
+      </c>
+      <c r="L34">
+        <v>34618</v>
+      </c>
+      <c r="M34">
+        <v>31380</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>28740</v>
+      </c>
+      <c r="C35">
+        <v>30171</v>
+      </c>
+      <c r="D35">
+        <v>32709</v>
+      </c>
+      <c r="E35">
+        <v>31543</v>
+      </c>
+      <c r="F35">
+        <v>27270</v>
+      </c>
+      <c r="G35">
+        <v>14058</v>
+      </c>
+      <c r="H35">
+        <v>9054</v>
+      </c>
+      <c r="I35">
+        <v>8428</v>
+      </c>
+      <c r="J35">
+        <v>8488</v>
+      </c>
+      <c r="K35">
+        <v>8922</v>
+      </c>
+      <c r="L35">
+        <v>9816</v>
+      </c>
+      <c r="M35">
+        <v>12666</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>26921</v>
+      </c>
+      <c r="C36">
+        <v>31257</v>
+      </c>
+      <c r="D36">
+        <v>30858</v>
+      </c>
+      <c r="E36">
+        <v>31724</v>
+      </c>
+      <c r="F36">
+        <v>25305</v>
+      </c>
+      <c r="G36">
+        <v>15660</v>
+      </c>
+      <c r="H36">
+        <v>9080</v>
+      </c>
+      <c r="I36">
+        <v>8377</v>
+      </c>
+      <c r="J36">
+        <v>8497</v>
+      </c>
+      <c r="K36">
+        <v>8834</v>
+      </c>
+      <c r="L36">
+        <v>9803</v>
+      </c>
+      <c r="M36">
+        <v>12623</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>26282</v>
+      </c>
+      <c r="C37">
+        <v>30092</v>
+      </c>
+      <c r="D37">
+        <v>30717</v>
+      </c>
+      <c r="E37">
+        <v>31413</v>
+      </c>
+      <c r="F37">
+        <v>23335</v>
+      </c>
+      <c r="G37">
+        <v>13413</v>
+      </c>
+      <c r="H37">
+        <v>8655</v>
+      </c>
+      <c r="I37">
+        <v>8419</v>
+      </c>
+      <c r="J37">
+        <v>8409</v>
+      </c>
+      <c r="K37">
+        <v>8752</v>
+      </c>
+      <c r="L37">
+        <v>9845</v>
+      </c>
+      <c r="M37">
+        <v>12429</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>25792</v>
+      </c>
+      <c r="C38">
+        <v>26672</v>
+      </c>
+      <c r="D38">
+        <v>30459</v>
+      </c>
+      <c r="E38">
+        <v>31890</v>
+      </c>
+      <c r="F38">
+        <v>32057</v>
+      </c>
+      <c r="G38">
+        <v>33572</v>
+      </c>
+      <c r="H38">
+        <v>33324</v>
+      </c>
+      <c r="I38">
+        <v>32232</v>
+      </c>
+      <c r="J38">
+        <v>32545</v>
+      </c>
+      <c r="K38">
+        <v>30557</v>
+      </c>
+      <c r="L38">
+        <v>28267</v>
+      </c>
+      <c r="M38">
+        <v>26260</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39">
+        <v>5222</v>
+      </c>
+      <c r="C39">
+        <v>5598</v>
+      </c>
+      <c r="D39">
+        <v>5558</v>
+      </c>
+      <c r="E39">
+        <v>5801</v>
+      </c>
+      <c r="F39">
+        <v>5939</v>
+      </c>
+      <c r="G39">
+        <v>6041</v>
+      </c>
+      <c r="H39">
+        <v>6035</v>
+      </c>
+      <c r="I39">
+        <v>6088</v>
+      </c>
+      <c r="J39">
+        <v>5929</v>
+      </c>
+      <c r="K39">
+        <v>5833</v>
+      </c>
+      <c r="L39">
+        <v>5559</v>
+      </c>
+      <c r="M39">
+        <v>5426</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>